--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -13,8 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
+    <sheet name="Regression_Tests" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression_Tests!$A$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="61">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -90,15 +92,6 @@
     <t>Revenue_Tier</t>
   </si>
   <si>
-    <t>select_MEDEFENSE_Plus_and_eMD_With_PCI_and_Cyber_Crime_Combined_1MM_1MM_100K_250K_limit_1K_Deduct</t>
-  </si>
-  <si>
-    <t>select_MEDEFENSE_Plus_and_eMD_Without_PCI_and_Cyber_Crime_Combined_1MM_1MM_100K_250K_limit_1K_Deduct</t>
-  </si>
-  <si>
-    <t>select_MEDEFENSE_Plus_Only_1MM_1MM_limit_1K_Deduct</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -127,6 +120,99 @@
   </si>
   <si>
     <t>Effective_Date</t>
+  </si>
+  <si>
+    <t>select_1M_Medefense_Plus_Only_1MM_1MM_limit_0_Deduct</t>
+  </si>
+  <si>
+    <t>select_1M_Cyber_Liability_Only_1MM_1MM_limit_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_2M_Cyber_Liability_Only_1MM_1MM_limit_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_3M_Cyber_Liability_Only_1MM_1MM_limit_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_1M_Cyber_Liability_and_Medefense_Plus_1MM_1MM_limit_0_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_2M_Cyber_Liability_and_Medefense_Plus_1MM_1MM_limit_0_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_3M_Cyber_Liability_and_Medefense_Plus_1MM_1MM_limit_0_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_2M_Cyber_Liability_Only_No_PCI_1MM_1MM_limit_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_3M_Cyber_Liability_Only_No_PCI_1MM_1MM_limit_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_1M_Cyber_Liability_and_Medefense_Plus_No_PCI_1MM_1MM_limit_0_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_2M_Cyber_Liability_and_Medefense_Plus_No_PCI_1MM_1MM_limit_0_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_3M_Cyber_Liability_and_Medefense_Plus_No_PCI_1MM_1MM_limit_0_0_2pt5K_Deduct</t>
+  </si>
+  <si>
+    <t>select_CyberRisk_with_Cyber_Crime_Only</t>
+  </si>
+  <si>
+    <t>select_CyberRisk_Only_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_Only</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_with_Peer_Review_Proceeding_Sublimit</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_and_CyberRisk_with_Cyber_Crime_Combined_Shared_Limits</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_and_CyberRisk_Combined_Shared_Limits_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_and_CyberRisk_Combined_Separate_Limits_with_Cyber_Crime</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_and_CyberRisk_Combined_Separate_Limits_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_with_Peer_Review_Proceeding_Sublimit_and_CyberRisk_Combined_Shared_Limits_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_with_Peer_Review_Proceeding_Sublimit_and_CyberRisk_Combined_Shared_Limits_with_Cyber_Crime</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_with_Peer_Review_Proceeding_Sublimit_and_CyberRisk_Combined_Separate_Limits_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
+  </si>
+  <si>
+    <t>select_Cyber_Liability_Only_No_PCI</t>
+  </si>
+  <si>
+    <t>select_Cyber_Liability_with_Breach_Event_Costs_Outside_the_Limits_No_PCI</t>
+  </si>
+  <si>
+    <t>select_Cyber_Liability_with_Claims_Expenses_Outside_the_Limits_No_PCI</t>
+  </si>
+  <si>
+    <t>select_Cyber_Liability_with_Claims_Expenses_Outside_the_Limits_and_with_Breach_Event_Costs_Outside_the_Limits_No_PCI</t>
+  </si>
+  <si>
+    <t>select_MEDEFENSE_Plus_and_Cyber_Liability_Combined_No_PCI</t>
+  </si>
+  <si>
+    <t>select_MEDEFENSE_Plus_and_Cyber_Liability_with_Breach_Event_Costs_Outside_the_Limits_No_PCI</t>
+  </si>
+  <si>
+    <t>select_MEDEFENSE_Plus_and_Cyber_Liability_with_Claims_Expenses_Outside_the_Limits_No_PCI</t>
+  </si>
+  <si>
+    <t>select_MEDEFENSE_Plus_and_Cyber_Liability_with_Claims_Expenses_Outside_the_Limits_and_with_Breach_Event_Costs_Outside_the_Limits_No_PCI</t>
   </si>
 </sst>
 </file>
@@ -198,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -229,6 +315,12 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,12 +648,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,7 +670,7 @@
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="133.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="151.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -591,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -628,178 +720,610 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C5" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="E5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="I7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N67"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="157.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D3" s="8">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="C4" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="I4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -808,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="18">
         <v>42984</v>
@@ -832,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="12">
         <v>10000000</v>
@@ -841,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N6" s="11">
         <v>0</v>
@@ -849,10 +1373,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="18">
         <v>42984</v>
@@ -870,112 +1394,2664 @@
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="I9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2</v>
+      </c>
+      <c r="E17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L22" s="14">
+        <v>1</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L27" s="14">
+        <v>1</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
+      <c r="E29" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="C41" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3</v>
+      </c>
+      <c r="E44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3</v>
+      </c>
+      <c r="E45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3</v>
+      </c>
+      <c r="E48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3</v>
+      </c>
+      <c r="E51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="19">
-        <v>42984</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="B52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D52" s="8">
+        <v>4</v>
+      </c>
+      <c r="E52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="13" t="s">
+      <c r="I52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L52" s="8">
+        <v>1</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="C53" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D53" s="8">
+        <v>4</v>
+      </c>
+      <c r="E53" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L53" s="8">
+        <v>1</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D54" s="8">
+        <v>4</v>
+      </c>
+      <c r="E54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L54" s="8">
+        <v>1</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D55" s="8">
+        <v>4</v>
+      </c>
+      <c r="E55" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L55" s="8">
+        <v>1</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D56" s="8">
+        <v>4</v>
+      </c>
+      <c r="E56" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L56" s="8">
+        <v>1</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D57" s="8">
+        <v>4</v>
+      </c>
+      <c r="E57" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L57" s="8">
+        <v>1</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D58" s="8">
+        <v>4</v>
+      </c>
+      <c r="E58" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L58" s="8">
+        <v>1</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D59" s="8">
+        <v>4</v>
+      </c>
+      <c r="E59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L59" s="8">
+        <v>1</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="19">
-        <v>42984</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="B60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D60" s="8">
+        <v>4</v>
+      </c>
+      <c r="E60" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L9" s="14">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="14">
+      <c r="I60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L60" s="8">
+        <v>1</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D61" s="8">
+        <v>4</v>
+      </c>
+      <c r="E61" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L61" s="8">
+        <v>1</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D62" s="8">
+        <v>4</v>
+      </c>
+      <c r="E62" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L62" s="8">
+        <v>1</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D63" s="8">
+        <v>4</v>
+      </c>
+      <c r="E63" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L63" s="8">
+        <v>1</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D64" s="8">
+        <v>4</v>
+      </c>
+      <c r="E64" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L64" s="8">
+        <v>1</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D65" s="8">
+        <v>4</v>
+      </c>
+      <c r="E65" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D66" s="8">
+        <v>4</v>
+      </c>
+      <c r="E66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L66" s="8">
+        <v>1</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D67" s="8">
+        <v>4</v>
+      </c>
+      <c r="E67" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L67" s="8">
+        <v>1</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N67" s="8">
         <v>0</v>
       </c>
     </row>

--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="45">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -158,61 +158,13 @@
     <t>select_3M_Cyber_Liability_and_Medefense_Plus_No_PCI_1MM_1MM_limit_0_0_2pt5K_Deduct</t>
   </si>
   <si>
-    <t>select_CyberRisk_with_Cyber_Crime_Only</t>
-  </si>
-  <si>
-    <t>select_CyberRisk_Only_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_Only</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_with_Peer_Review_Proceeding_Sublimit</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_and_CyberRisk_with_Cyber_Crime_Combined_Shared_Limits</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_and_CyberRisk_Combined_Shared_Limits_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_and_CyberRisk_Combined_Separate_Limits_with_Cyber_Crime</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_and_CyberRisk_Combined_Separate_Limits_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_with_Peer_Review_Proceeding_Sublimit_and_CyberRisk_Combined_Shared_Limits_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_with_Peer_Review_Proceeding_Sublimit_and_CyberRisk_Combined_Shared_Limits_with_Cyber_Crime</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_with_Peer_Review_Proceeding_Sublimit_and_CyberRisk_Combined_Separate_Limits_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
-  </si>
-  <si>
-    <t>select_Cyber_Liability_Only_No_PCI</t>
-  </si>
-  <si>
-    <t>select_Cyber_Liability_with_Breach_Event_Costs_Outside_the_Limits_No_PCI</t>
-  </si>
-  <si>
-    <t>select_Cyber_Liability_with_Claims_Expenses_Outside_the_Limits_No_PCI</t>
-  </si>
-  <si>
-    <t>select_Cyber_Liability_with_Claims_Expenses_Outside_the_Limits_and_with_Breach_Event_Costs_Outside_the_Limits_No_PCI</t>
-  </si>
-  <si>
-    <t>select_MEDEFENSE_Plus_and_Cyber_Liability_Combined_No_PCI</t>
-  </si>
-  <si>
-    <t>select_MEDEFENSE_Plus_and_Cyber_Liability_with_Breach_Event_Costs_Outside_the_Limits_No_PCI</t>
-  </si>
-  <si>
-    <t>select_MEDEFENSE_Plus_and_Cyber_Liability_with_Claims_Expenses_Outside_the_Limits_No_PCI</t>
-  </si>
-  <si>
-    <t>select_MEDEFENSE_Plus_and_Cyber_Liability_with_Claims_Expenses_Outside_the_Limits_and_with_Breach_Event_Costs_Outside_the_Limits_No_PCI</t>
+    <t>select_Medefense_Plus_with_100K_Disciplinary_Proceedings_Sublimit_1M_Limit_0_Deduct</t>
+  </si>
+  <si>
+    <t>select_TMLT_Enhanced_Cyber_Liability_with_PCI_and_Cyber_Crime_Sublimit_1M_Limit_0_2pt5k_Deduct</t>
+  </si>
+  <si>
+    <t>select_Medefense_Plus_with_100K_Disciplinary_Proceedings_Sublimit_Enhanced_Cyber_Liability_with_PCI_and_Cyber_Crime_Sublimit_1M_Limit_0_0_2pt5k_Deduct</t>
   </si>
 </sst>
 </file>
@@ -284,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -319,8 +271,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,12 +598,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,7 +620,7 @@
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="151.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="153" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -720,357 +670,359 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C6" s="16">
         <v>42983</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="I6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C7" s="16">
         <v>42983</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="I7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C8" s="17">
         <v>42983</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="I8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C9" s="17">
         <v>42983</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="E9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="18">
-        <v>42984</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="18">
-        <v>42984</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="19">
-        <v>42984</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L9" s="14">
-        <v>1</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="19">
-        <v>42984</v>
-      </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="I9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:O1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,12 +1032,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2517,10 +2469,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="16">
         <v>42983</v>
@@ -2538,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>6</v>
@@ -2553,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N33" s="5">
         <v>0</v>
@@ -2561,10 +2513,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" s="16">
         <v>42983</v>
@@ -2582,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>6</v>
@@ -2597,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N34" s="5">
         <v>0</v>
@@ -2605,10 +2557,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="16">
         <v>42983</v>
@@ -2626,1432 +2578,288 @@
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D36" s="8">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L35" s="5">
-        <v>1</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="16">
+      <c r="I36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="17">
         <v>42983</v>
       </c>
-      <c r="D36" s="5">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4" t="s">
+      <c r="D37" s="8">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L36" s="5">
-        <v>1</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="16">
+      <c r="I37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L37" s="8">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="17">
         <v>42983</v>
       </c>
-      <c r="D37" s="5">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="D38" s="8">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L37" s="5">
-        <v>1</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="16">
+      <c r="I38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="17">
         <v>42983</v>
       </c>
-      <c r="D38" s="5">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L38" s="5">
-        <v>1</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="16">
+      <c r="D39" s="8">
+        <v>4</v>
+      </c>
+      <c r="E39" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="17">
         <v>42983</v>
       </c>
-      <c r="D39" s="5">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L39" s="5">
-        <v>1</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="16">
+      <c r="D40" s="8">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L40" s="8">
+        <v>1</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="17">
         <v>42983</v>
       </c>
-      <c r="D40" s="5">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L40" s="5">
-        <v>1</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D41" s="5">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4" t="s">
+      <c r="D41" s="8">
+        <v>4</v>
+      </c>
+      <c r="E41" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L41" s="5">
-        <v>1</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D42" s="5">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L42" s="5">
-        <v>1</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D43" s="5">
-        <v>3</v>
-      </c>
-      <c r="E43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L43" s="5">
-        <v>1</v>
-      </c>
-      <c r="M43" s="4" t="s">
+      <c r="I41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D44" s="5">
-        <v>3</v>
-      </c>
-      <c r="E44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L44" s="5">
-        <v>1</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D45" s="5">
-        <v>3</v>
-      </c>
-      <c r="E45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L45" s="5">
-        <v>1</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D46" s="5">
-        <v>3</v>
-      </c>
-      <c r="E46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L46" s="5">
-        <v>1</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3</v>
-      </c>
-      <c r="E47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L47" s="5">
-        <v>1</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D48" s="5">
-        <v>3</v>
-      </c>
-      <c r="E48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L48" s="5">
-        <v>1</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D49" s="5">
-        <v>3</v>
-      </c>
-      <c r="E49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L49" s="5">
-        <v>1</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D50" s="5">
-        <v>3</v>
-      </c>
-      <c r="E50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L50" s="5">
-        <v>1</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N50" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D51" s="5">
-        <v>3</v>
-      </c>
-      <c r="E51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L51" s="5">
-        <v>1</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N51" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D52" s="8">
-        <v>4</v>
-      </c>
-      <c r="E52" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L52" s="8">
-        <v>1</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N52" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D53" s="8">
-        <v>4</v>
-      </c>
-      <c r="E53" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L53" s="8">
-        <v>1</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D54" s="8">
-        <v>4</v>
-      </c>
-      <c r="E54" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L54" s="8">
-        <v>1</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N54" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D55" s="8">
-        <v>4</v>
-      </c>
-      <c r="E55" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L55" s="8">
-        <v>1</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N55" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D56" s="8">
-        <v>4</v>
-      </c>
-      <c r="E56" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L56" s="8">
-        <v>1</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D57" s="8">
-        <v>4</v>
-      </c>
-      <c r="E57" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L57" s="8">
-        <v>1</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N57" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D58" s="8">
-        <v>4</v>
-      </c>
-      <c r="E58" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L58" s="8">
-        <v>1</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N58" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D59" s="8">
-        <v>4</v>
-      </c>
-      <c r="E59" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L59" s="8">
-        <v>1</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N59" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D60" s="8">
-        <v>4</v>
-      </c>
-      <c r="E60" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L60" s="8">
-        <v>1</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N60" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D61" s="8">
-        <v>4</v>
-      </c>
-      <c r="E61" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L61" s="8">
-        <v>1</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N61" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D62" s="8">
-        <v>4</v>
-      </c>
-      <c r="E62" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L62" s="8">
-        <v>1</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N62" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D63" s="8">
-        <v>4</v>
-      </c>
-      <c r="E63" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L63" s="8">
-        <v>1</v>
-      </c>
-      <c r="M63" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N63" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D64" s="8">
-        <v>4</v>
-      </c>
-      <c r="E64" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L64" s="8">
-        <v>1</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N64" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D65" s="8">
-        <v>4</v>
-      </c>
-      <c r="E65" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L65" s="8">
-        <v>1</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N65" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D66" s="8">
-        <v>4</v>
-      </c>
-      <c r="E66" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L66" s="8">
-        <v>1</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N66" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D67" s="8">
-        <v>4</v>
-      </c>
-      <c r="E67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L67" s="8">
-        <v>1</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N67" s="8">
+      <c r="N41" s="8">
         <v>0</v>
       </c>
     </row>

--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="45">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -598,12 +598,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,325 +704,508 @@
         <v>10000000</v>
       </c>
       <c r="L2" s="11">
-        <v>1</v>
-      </c>
-      <c r="M2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L6" s="11">
+        <v>6</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="18">
-        <v>42984</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="C11" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="20" t="s">
+      <c r="I11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="19">
-        <v>42984</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="C13" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D13" s="14">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="E13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L4" s="14">
-        <v>1</v>
-      </c>
-      <c r="M4" s="21" t="s">
+      <c r="I13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="19">
-        <v>42984</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="C14" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D14" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="E14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L5" s="14">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21" t="s">
+      <c r="I14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C16" s="16">
         <v>42983</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D16" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="I16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C17" s="16">
         <v>42983</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="E17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="I17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C19" s="17">
         <v>42983</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="E19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="I19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C20" s="17">
         <v>42983</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D20" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="E20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="I20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:O1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1034,10 +1217,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -603,7 +603,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,7 +677,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="18">
-        <v>42984</v>
+        <v>43035</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>

--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -603,7 +603,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,7 +677,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="18">
-        <v>43035</v>
+        <v>43076</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -704,10 +704,10 @@
         <v>10000000</v>
       </c>
       <c r="L2" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="11">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="18">
-        <v>42984</v>
+        <v>43035</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>10000000</v>
       </c>
       <c r="L4" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="11">
         <v>0</v>

--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -271,6 +271,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,7 +686,8 @@
         <v>25</v>
       </c>
       <c r="C2" s="18">
-        <v>43076</v>
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -704,10 +714,10 @@
         <v>10000000</v>
       </c>
       <c r="L2" s="11">
-        <v>5</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="N2" s="11">
         <v>0</v>
@@ -722,7 +732,8 @@
         <v>25</v>
       </c>
       <c r="C4" s="18">
-        <v>43035</v>
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -767,7 +778,8 @@
         <v>25</v>
       </c>
       <c r="C6" s="18">
-        <v>42984</v>
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -794,10 +806,10 @@
         <v>10000000</v>
       </c>
       <c r="L6" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="11">
         <v>0</v>
@@ -812,7 +824,8 @@
         <v>25</v>
       </c>
       <c r="C8" s="18">
-        <v>42984</v>
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -839,10 +852,10 @@
         <v>10000000</v>
       </c>
       <c r="L8" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N8" s="11">
         <v>0</v>
@@ -857,7 +870,8 @@
         <v>25</v>
       </c>
       <c r="C10" s="18">
-        <v>42984</v>
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -886,111 +900,70 @@
       <c r="L10" s="11">
         <v>1</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>30</v>
+      <c r="M10" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="N10" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="18">
-        <v>42984</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="C12" s="18">
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="20" t="s">
+      <c r="I12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="19">
-        <v>42984</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2</v>
-      </c>
-      <c r="E13" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L13" s="14">
-        <v>1</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="19">
-        <v>42984</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
       </c>
       <c r="D14" s="14">
         <v>2</v>
@@ -1005,81 +978,83 @@
         <v>1</v>
       </c>
       <c r="H14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="22">
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L14" s="14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="21" t="s">
+      <c r="I15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="16">
-        <v>42983</v>
+        <v>22</v>
+      </c>
+      <c r="C17" s="23">
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
@@ -1094,81 +1069,83 @@
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="23">
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D19" s="8">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="17">
-        <v>42983</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="24">
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
       </c>
       <c r="D20" s="8">
         <v>4</v>
@@ -1183,38 +1160,83 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="24">
+        <f ca="1">TODAY()</f>
+        <v>43138</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="I21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="22" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3047,7 +3069,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="46">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>select_Medefense_Plus_with_100K_Disciplinary_Proceedings_Sublimit_Enhanced_Cyber_Liability_with_PCI_and_Cyber_Crime_Sublimit_1M_Limit_0_0_2pt5k_Deduct</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,7 +690,7 @@
       </c>
       <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -708,16 +711,16 @@
         <v>6</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K2" s="12">
         <v>10000000</v>
       </c>
       <c r="L2" s="11">
-        <v>1</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="N2" s="11">
         <v>0</v>
@@ -733,7 +736,7 @@
       </c>
       <c r="C4" s="18">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -760,10 +763,10 @@
         <v>10000000</v>
       </c>
       <c r="L4" s="11">
-        <v>6</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="N4" s="11">
         <v>0</v>
@@ -779,7 +782,7 @@
       </c>
       <c r="C6" s="18">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -806,10 +809,10 @@
         <v>10000000</v>
       </c>
       <c r="L6" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N6" s="11">
         <v>0</v>
@@ -825,7 +828,7 @@
       </c>
       <c r="C8" s="18">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -871,7 +874,7 @@
       </c>
       <c r="C10" s="18">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -917,7 +920,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
@@ -963,7 +966,7 @@
       </c>
       <c r="C14" s="22">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D14" s="14">
         <v>2</v>
@@ -1008,7 +1011,7 @@
       </c>
       <c r="C15" s="22">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D15" s="14">
         <v>2</v>
@@ -1054,7 +1057,7 @@
       </c>
       <c r="C17" s="23">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
@@ -1099,7 +1102,7 @@
       </c>
       <c r="C18" s="23">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -1145,7 +1148,7 @@
       </c>
       <c r="C20" s="24">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D20" s="8">
         <v>4</v>
@@ -1190,7 +1193,7 @@
       </c>
       <c r="C21" s="24">
         <f ca="1">TODAY()</f>
-        <v>43138</v>
+        <v>43194</v>
       </c>
       <c r="D21" s="8">
         <v>4</v>

--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="46">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -275,12 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,12 +604,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,7 +684,7 @@
       </c>
       <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>43194</v>
+        <v>43243</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -736,7 +730,7 @@
       </c>
       <c r="C4" s="18">
         <f ca="1">TODAY()</f>
-        <v>43194</v>
+        <v>43243</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -782,7 +776,7 @@
       </c>
       <c r="C6" s="18">
         <f ca="1">TODAY()</f>
-        <v>43194</v>
+        <v>43243</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -828,7 +822,7 @@
       </c>
       <c r="C8" s="18">
         <f ca="1">TODAY()</f>
-        <v>43194</v>
+        <v>43243</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -874,7 +868,7 @@
       </c>
       <c r="C10" s="18">
         <f ca="1">TODAY()</f>
-        <v>43194</v>
+        <v>43243</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -920,7 +914,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">TODAY()</f>
-        <v>43194</v>
+        <v>43243</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
@@ -966,7 +960,7 @@
       </c>
       <c r="C14" s="22">
         <f ca="1">TODAY()</f>
-        <v>43194</v>
+        <v>43243</v>
       </c>
       <c r="D14" s="14">
         <v>2</v>
@@ -1011,7 +1005,7 @@
       </c>
       <c r="C15" s="22">
         <f ca="1">TODAY()</f>
-        <v>43194</v>
+        <v>43243</v>
       </c>
       <c r="D15" s="14">
         <v>2</v>
@@ -1048,189 +1042,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="23">
-        <f ca="1">TODAY()</f>
-        <v>43194</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="23">
-        <f ca="1">TODAY()</f>
-        <v>43194</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="24">
-        <f ca="1">TODAY()</f>
-        <v>43194</v>
-      </c>
-      <c r="D20" s="8">
-        <v>4</v>
-      </c>
-      <c r="E20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="24">
-        <f ca="1">TODAY()</f>
-        <v>43194</v>
-      </c>
-      <c r="D21" s="8">
-        <v>4</v>
-      </c>
-      <c r="E21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
@@ -606,10 +606,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>43243</v>
+        <v>43262</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="C4" s="18">
         <f ca="1">TODAY()</f>
-        <v>43243</v>
+        <v>43262</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="C6" s="18">
         <f ca="1">TODAY()</f>
-        <v>43243</v>
+        <v>43262</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="C8" s="18">
         <f ca="1">TODAY()</f>
-        <v>43243</v>
+        <v>43262</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="C10" s="18">
         <f ca="1">TODAY()</f>
-        <v>43243</v>
+        <v>43262</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -914,7 +914,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">TODAY()</f>
-        <v>43243</v>
+        <v>43262</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
@@ -960,7 +960,7 @@
       </c>
       <c r="C14" s="22">
         <f ca="1">TODAY()</f>
-        <v>43243</v>
+        <v>43262</v>
       </c>
       <c r="D14" s="14">
         <v>2</v>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C15" s="22">
         <f ca="1">TODAY()</f>
-        <v>43243</v>
+        <v>43262</v>
       </c>
       <c r="D15" s="14">
         <v>2</v>
@@ -1053,12 +1053,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,48 +1169,20 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="18">
-        <v>42984</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1250,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="11">
         <v>0</v>
@@ -1294,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="11">
         <v>0</v>
@@ -1338,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="11">
         <v>0</v>
@@ -1382,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="11">
         <v>0</v>
@@ -1426,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" s="11">
         <v>0</v>
@@ -1434,10 +1406,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="18">
         <v>42984</v>
@@ -1455,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>6</v>
@@ -1470,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N9" s="11">
         <v>0</v>
@@ -1514,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="11">
         <v>0</v>
@@ -1558,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="11">
         <v>0</v>
@@ -1602,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12" s="11">
         <v>0</v>
@@ -1646,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="11">
         <v>0</v>
@@ -1690,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="11">
         <v>0</v>
@@ -1734,53 +1706,53 @@
         <v>1</v>
       </c>
       <c r="M15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="19">
-        <v>42984</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L16" s="14">
-        <v>1</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="14">
+      <c r="N16" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1822,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17" s="14">
         <v>0</v>
@@ -1866,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N18" s="14">
         <v>0</v>
@@ -1910,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="14">
         <v>0</v>
@@ -1954,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N20" s="14">
         <v>0</v>
@@ -1998,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N21" s="14">
         <v>0</v>
@@ -2042,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" s="14">
         <v>0</v>
@@ -2050,10 +2022,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="19">
         <v>42984</v>
@@ -2071,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>6</v>
@@ -2086,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N23" s="14">
         <v>0</v>
@@ -2130,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24" s="14">
         <v>0</v>
@@ -2174,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N25" s="14">
         <v>0</v>
@@ -2218,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26" s="14">
         <v>0</v>
@@ -2262,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N27" s="14">
         <v>0</v>
@@ -2306,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N28" s="14">
         <v>0</v>
@@ -2350,53 +2322,53 @@
         <v>1</v>
       </c>
       <c r="M29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="19">
+        <v>42984</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L30" s="14">
+        <v>1</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="16">
-        <v>42983</v>
-      </c>
-      <c r="D30" s="5">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="5">
+      <c r="N30" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2438,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N31" s="5">
         <v>0</v>
@@ -2482,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
@@ -2490,10 +2462,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="16">
         <v>42983</v>
@@ -2511,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>6</v>
@@ -2526,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N33" s="5">
         <v>0</v>
@@ -2570,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N34" s="5">
         <v>0</v>
@@ -2614,53 +2586,53 @@
         <v>1</v>
       </c>
       <c r="M35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="16">
+        <v>42983</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="17">
-        <v>42983</v>
-      </c>
-      <c r="D36" s="8">
-        <v>4</v>
-      </c>
-      <c r="E36" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="L36" s="8">
-        <v>1</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="8">
+      <c r="N36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2702,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N37" s="8">
         <v>0</v>
@@ -2746,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
@@ -2754,10 +2726,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" s="17">
         <v>42983</v>
@@ -2775,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>6</v>
@@ -2790,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N39" s="8">
         <v>0</v>
@@ -2834,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N40" s="8">
         <v>0</v>
@@ -2878,9 +2850,53 @@
         <v>1</v>
       </c>
       <c r="M41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="17">
+        <v>42983</v>
+      </c>
+      <c r="D42" s="8">
+        <v>4</v>
+      </c>
+      <c r="E42" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="L42" s="8">
+        <v>1</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N42" s="8">
         <v>0</v>
       </c>
     </row>

--- a/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_TMLT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
@@ -606,10 +606,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43319</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="C4" s="18">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43319</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="C6" s="18">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43319</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="C8" s="18">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43319</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="C10" s="18">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43319</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -914,7 +914,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43319</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
@@ -960,7 +960,7 @@
       </c>
       <c r="C14" s="22">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43319</v>
       </c>
       <c r="D14" s="14">
         <v>2</v>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C15" s="22">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43319</v>
       </c>
       <c r="D15" s="14">
         <v>2</v>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
